--- a/Use Case Model/use case.xlsx
+++ b/Use Case Model/use case.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yanis\Desktop\Git\MedievalWarfare\Use Case Model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7965"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>Play Medieval Warfare</t>
   </si>
@@ -214,13 +219,37 @@
   </si>
   <si>
     <t xml:space="preserve">Scope : </t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Server, UI</t>
+  </si>
+  <si>
+    <t>Server, UI, Player</t>
+  </si>
+  <si>
+    <t>Server, Player</t>
+  </si>
+  <si>
+    <t>Engine, Player,Server</t>
+  </si>
+  <si>
+    <t>Engine, UI</t>
+  </si>
+  <si>
+    <t>Engine, Map</t>
+  </si>
+  <si>
+    <t>Engine, UI, Map, Unit,Town</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,18 +266,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -403,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,9 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,17 +473,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,9 +567,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,6 +602,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,14 +778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
@@ -765,7 +797,7 @@
     <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -785,21 +817,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -819,7 +857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="180">
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,7 +877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -859,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -879,69 +917,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="75">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="90">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -957,7 +995,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -977,21 +1015,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +1055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="165">
+    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1031,7 +1075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -1051,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1071,53 +1115,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>59</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="105">
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1137,7 +1181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1151,17 +1195,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -1175,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="135">
+    <row r="54" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -1189,7 +1238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -1203,7 +1252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1217,39 +1266,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="45">
-      <c r="A58" s="8"/>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
       <c r="B58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="D59" s="8"/>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" customHeight="1">
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1261,19 +1310,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:H11"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="D57:D59"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:E11"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A57:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1281,26 +1330,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Use Case Model/use case.xlsx
+++ b/Use Case Model/use case.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yanis\Desktop\Git\MedievalWarfare\Use Case Model\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="7965"/>
   </bookViews>
@@ -104,84 +99,36 @@
     <t>The intention of the Player is to be able to fill in the logging info, and decide to start a new game or join an existing game</t>
   </si>
   <si>
-    <t>1. Player fills in the logging</t>
-  </si>
-  <si>
     <t>2. Player decide to host or join a game</t>
   </si>
   <si>
     <t>The intention of the Player is to start a completely new game. It then becomes the host of this game, so he is the one who can take decision about setup</t>
   </si>
   <si>
-    <t>1. Player select New Game</t>
-  </si>
-  <si>
-    <t>2. Then, Player select Host Game</t>
-  </si>
-  <si>
-    <t>1. Load a map (new or existing one)</t>
-  </si>
-  <si>
-    <t>2. Agree on the map with other players</t>
-  </si>
-  <si>
-    <t>3. Require all 4 players to be ready</t>
-  </si>
-  <si>
     <t>3a. If not enough players, then wait for players or try another map which might have enough player waiting</t>
   </si>
   <si>
     <t>The Player intention is to start playing the game which means exchanging turns between players, and save the game  when you want to stop playing</t>
   </si>
   <si>
-    <t>1. Play you turn</t>
-  </si>
-  <si>
-    <t>2. Look at other players turns</t>
-  </si>
-  <si>
-    <t>3. Save the game</t>
-  </si>
-  <si>
     <t>2a. If other players stop playing, then game ends</t>
   </si>
   <si>
     <t>The Player intention is to join a lobby that another host created and a host decide on game and play with them</t>
   </si>
   <si>
-    <t>1. Look at existing games</t>
-  </si>
-  <si>
-    <t>2. Join your prefered existing game</t>
-  </si>
-  <si>
     <t>1a. If no existing game present in lobby, then Player must create a new game</t>
   </si>
   <si>
     <t>The intention of the Player is the save all the data associated with the current game in order to play able to play at a later time</t>
   </si>
   <si>
-    <t>1. Stop Playing</t>
-  </si>
-  <si>
-    <t>2. Save the game</t>
-  </si>
-  <si>
     <t>The Player intention is to setup the remaining requirements in order to be ready to play. (Agree on a map, load a previously saved game, etc.)</t>
   </si>
   <si>
     <t>The intention of the Player is to do some moves in order to play the game and then control is given over to other players until its his turn again</t>
   </si>
   <si>
-    <t>1. Player does moves</t>
-  </si>
-  <si>
-    <t>2. Player hands control over to other players</t>
-  </si>
-  <si>
-    <t>3. Player regains control</t>
-  </si>
-  <si>
     <t>Use Case :</t>
   </si>
   <si>
@@ -243,13 +190,61 @@
   </si>
   <si>
     <t>Engine, UI, Map, Unit,Town</t>
+  </si>
+  <si>
+    <t>1. Player logs onto System providing username</t>
+  </si>
+  <si>
+    <t>1. Player stops playing (Cannot perform anymore move)</t>
+  </si>
+  <si>
+    <t>2. Game data gets saved locally</t>
+  </si>
+  <si>
+    <t>1. Player loads a map (new or existing one)</t>
+  </si>
+  <si>
+    <t>3. System requires all 4 players to be ready</t>
+  </si>
+  <si>
+    <t>2. All players agree on the map and sends agreed decision to the System</t>
+  </si>
+  <si>
+    <t>2. Player selects Host Game</t>
+  </si>
+  <si>
+    <t>1. Player selects New Game</t>
+  </si>
+  <si>
+    <t>1. Player perform moves</t>
+  </si>
+  <si>
+    <t>2. Player hands tells System to hand control over to other players</t>
+  </si>
+  <si>
+    <t>3. System tells Player to regain control</t>
+  </si>
+  <si>
+    <t>1. Player plays its turn</t>
+  </si>
+  <si>
+    <t>2. System allow Player to see other players turns(moves)</t>
+  </si>
+  <si>
+    <t>3. When needed, Player saves the game</t>
+  </si>
+  <si>
+    <t>1. System displays existing games</t>
+  </si>
+  <si>
+    <t>2. Player decides to join its prefered existing game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,41 +435,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,10 +565,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,7 +599,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,14 +774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
@@ -797,532 +793,640 @@
     <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" ht="135">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" ht="90">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="105">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="120">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="17"/>
+      <c r="B60" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="8"/>
+      <c r="B61" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="105">
+      <c r="A68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30">
+      <c r="A71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45">
+      <c r="A72" s="17"/>
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30">
+      <c r="A73" s="8"/>
+      <c r="B73" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="105">
+      <c r="A80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="8"/>
+      <c r="B84" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="90">
+      <c r="A94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="4">
         <v>3</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45">
+      <c r="A98" s="8"/>
+      <c r="B98" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+    </row>
+    <row r="100" spans="1:2" ht="60">
+      <c r="A100" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="4">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="D60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:B87"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A71:A73"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1330,26 +1434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
